--- a/TestData/Production/Web_POS/Billing/carry_bag_test_data.xlsx
+++ b/TestData/Production/Web_POS/Billing/carry_bag_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Calc"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\TESTDATA\PRODUCTION\Web_POS\Billing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saloni\Desktop\Ginesys\Zwing_repo\zwing-qa-automation\TestData\Production\Web_POS\Billing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>tax_invoice</t>
+  </si>
+  <si>
+    <t>user_mobile</t>
   </si>
   <si>
     <t>CB_1</t>
@@ -526,7 +529,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
@@ -547,6 +550,7 @@
     <col min="18" max="18" width="29.46" style="2" customWidth="1"/>
     <col min="19" max="19" width="15" style="1" customWidth="1"/>
     <col min="20" max="20" width="18.93" style="1" customWidth="1"/>
+    <col min="22" max="22" width="22.71094" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -613,997 +617,1048 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3">
         <v>1234</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3">
         <v>123456</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V2" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>1234</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3">
         <v>123456</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V3" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3">
         <v>1234</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="3">
         <v>123456</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V4" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3">
         <v>1234</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>123456</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V5" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>1234</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3">
         <v>123456</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V6" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3">
         <v>1234</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="3">
         <v>123456</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V7" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3">
         <v>1234</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3">
         <v>123456</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V8" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="3">
         <v>1234</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3">
         <v>123456</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V9" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3">
         <v>1234</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3">
         <v>123456</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V10" s="6">
+        <v>5555555550</v>
       </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3">
         <v>1234</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="3">
         <v>123456</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V11" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3">
         <v>1234</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3">
         <v>123456</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V12" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3">
         <v>1234</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="3">
         <v>123456</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V13" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3">
         <v>1234</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3">
         <v>123456</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V14" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3">
         <v>1234</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="3">
         <v>123456</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T15" s="1">
         <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>9874563218</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="3">
         <v>1234</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3">
         <v>123456</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="V16" s="6">
+        <v>9874653219</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3">
         <v>1234</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="3">
         <v>123456</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T17" s="1">
         <v>600</v>
+      </c>
+      <c r="V17" s="3">
+        <v>9874563218</v>
       </c>
     </row>
   </sheetData>
